--- a/Documentation/data structure.xlsx
+++ b/Documentation/data structure.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Douzhyk Andrei</author>
+  </authors>
+  <commentList>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Douzhyk Andrei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+65535 is maximum
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>LC1</t>
   </si>
@@ -35,12 +71,6 @@
     <t>LC3</t>
   </si>
   <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>Ti</t>
-  </si>
-  <si>
     <t>Vboard</t>
   </si>
   <si>
@@ -69,21 +99,267 @@
   </si>
   <si>
     <t>Mz</t>
+  </si>
+  <si>
+    <t>Analog 1</t>
+  </si>
+  <si>
+    <t>Analog 2</t>
+  </si>
+  <si>
+    <t>Analog 3</t>
+  </si>
+  <si>
+    <t>Analog 4</t>
+  </si>
+  <si>
+    <t>Analog 7</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>usign</t>
+  </si>
+  <si>
+    <t>CLipID+Task</t>
+  </si>
+  <si>
+    <t>Unixtime</t>
+  </si>
+  <si>
+    <t>millis%1000</t>
+  </si>
+  <si>
+    <t>usigned</t>
+  </si>
+  <si>
+    <t>line#</t>
+  </si>
+  <si>
+    <t>Name of File</t>
+  </si>
+  <si>
+    <t>file #</t>
+  </si>
+  <si>
+    <t>file size/1000</t>
+  </si>
+  <si>
+    <t>file size%1000</t>
+  </si>
+  <si>
+    <t># of lines</t>
+  </si>
+  <si>
+    <t>File index</t>
+  </si>
+  <si>
+    <t>Te (clip)</t>
+  </si>
+  <si>
+    <t>Ti (board)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-2</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>% success</t>
+  </si>
+  <si>
+    <t>clip millis</t>
+  </si>
+  <si>
+    <t>10__</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>T(b) + T(c )</t>
+  </si>
+  <si>
+    <t>Live Z</t>
+  </si>
+  <si>
+    <t>Live Y</t>
+  </si>
+  <si>
+    <t>Live X</t>
+  </si>
+  <si>
+    <t>Live V</t>
+  </si>
+  <si>
+    <t>Live Data</t>
+  </si>
+  <si>
+    <t>File finished &gt;&gt; send back 1099</t>
+  </si>
+  <si>
+    <t>File(finished)</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>File (collect)</t>
+  </si>
+  <si>
+    <t>File List finished &gt;&gt; send back 1099</t>
+  </si>
+  <si>
+    <t>File List (finished)</t>
+  </si>
+  <si>
+    <t>File List</t>
+  </si>
+  <si>
+    <t>File List (collect)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>RcvMsg from Arduino</t>
+  </si>
+  <si>
+    <t>RcvMsg[1]</t>
+  </si>
+  <si>
+    <t>RcvMsg[2] - unix time</t>
+  </si>
+  <si>
+    <t>Acknoledge finished</t>
+  </si>
+  <si>
+    <t>Start Live Data</t>
+  </si>
+  <si>
+    <t>dl_until</t>
+  </si>
+  <si>
+    <t>dl_from</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Start senf File</t>
+  </si>
+  <si>
+    <t>Start File List</t>
+  </si>
+  <si>
+    <t>unixtime RPI</t>
+  </si>
+  <si>
+    <t>Start Logging</t>
+  </si>
+  <si>
+    <t>SndMsg to Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send FILE 1040 </t>
+  </si>
+  <si>
+    <t>Send FILE LIST 1030</t>
+  </si>
+  <si>
+    <t>Ping 1000</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PING clip millis - old millis</t>
+  </si>
+  <si>
+    <t>RECEIVE</t>
+  </si>
+  <si>
+    <t>clip millis OLD</t>
+  </si>
+  <si>
+    <t>PING OLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.79998168889431442"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +368,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -105,17 +399,519 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -395,160 +1191,1355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="J7" s="56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>6</v>
+      </c>
+      <c r="G8" s="81">
+        <v>7</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="10">
+        <v>3</v>
+      </c>
+      <c r="M8" s="10">
+        <v>4</v>
+      </c>
+      <c r="N8" s="10">
+        <v>5</v>
+      </c>
+      <c r="O8" s="10">
+        <v>6</v>
+      </c>
+      <c r="P8" s="81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="55">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="87"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>16</v>
+      </c>
+      <c r="B10" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C10" s="18">
+        <v>16</v>
+      </c>
+      <c r="D10" s="85">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>0</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6</v>
+      </c>
+      <c r="G13" s="81">
+        <v>7</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="10"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10">
+        <v>16</v>
+      </c>
+      <c r="F15" s="10">
+        <v>16</v>
+      </c>
+      <c r="G15" s="81">
+        <v>16</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="26">
+        <v>0</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27">
+        <v>4</v>
+      </c>
+      <c r="E19" s="28">
+        <v>5</v>
+      </c>
+      <c r="F19" s="28">
+        <v>6</v>
+      </c>
+      <c r="G19" s="28">
+        <v>7</v>
+      </c>
+      <c r="H19" s="28">
+        <v>8</v>
+      </c>
+      <c r="I19" s="28">
+        <v>9</v>
+      </c>
+      <c r="J19" s="28">
+        <v>10</v>
+      </c>
+      <c r="K19" s="28">
+        <v>11</v>
+      </c>
+      <c r="L19" s="28">
+        <v>12</v>
+      </c>
+      <c r="M19" s="28">
+        <v>13</v>
+      </c>
+      <c r="N19" s="28">
+        <v>14</v>
+      </c>
+      <c r="O19" s="28">
+        <v>15</v>
+      </c>
+      <c r="P19" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>17</v>
+      </c>
+      <c r="R19" s="5">
+        <v>18</v>
+      </c>
+      <c r="S19" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="29">
+        <v>0</v>
+      </c>
+      <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="F20" s="30">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="G20" s="30">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="H20" s="30">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I20" s="30">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J20" s="38">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="K20" s="30">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="L20" s="30">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="M20" s="30">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="N20" s="30">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="O20" s="38">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="P20" s="7">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="Q20" s="7">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="R20" s="7">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="S20" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F21" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G21" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K21" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L21" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="S21" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <v>16</v>
+      </c>
+      <c r="B22" s="26">
+        <v>32</v>
+      </c>
+      <c r="C22" s="26">
+        <v>16</v>
+      </c>
+      <c r="D22" s="31">
+        <v>16</v>
+      </c>
+      <c r="E22" s="32">
+        <v>16</v>
+      </c>
+      <c r="F22" s="32">
+        <v>16</v>
+      </c>
+      <c r="G22" s="32">
+        <v>16</v>
+      </c>
+      <c r="H22" s="32">
+        <v>16</v>
+      </c>
+      <c r="I22" s="32">
+        <v>16</v>
+      </c>
+      <c r="J22" s="36">
+        <v>16</v>
+      </c>
+      <c r="K22" s="36">
+        <v>16</v>
+      </c>
+      <c r="L22" s="36">
+        <v>16</v>
+      </c>
+      <c r="M22" s="32">
+        <v>16</v>
+      </c>
+      <c r="N22" s="36">
+        <v>16</v>
+      </c>
+      <c r="O22" s="32">
+        <v>16</v>
+      </c>
+      <c r="P22" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>16</v>
+      </c>
+      <c r="R22" s="13">
+        <v>16</v>
+      </c>
+      <c r="S22" s="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="F23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="G23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="30" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0</v>
+      </c>
+      <c r="D31" s="67">
+        <v>1</v>
+      </c>
+      <c r="E31" s="67">
+        <v>2</v>
+      </c>
+      <c r="F31" s="67">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="G31" s="67">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="H31" s="67">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3">
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2">
-        <v>16</v>
-      </c>
-      <c r="N3">
-        <v>16</v>
-      </c>
-      <c r="O3" s="2">
-        <v>16</v>
-      </c>
-      <c r="P3" s="2">
-        <v>16</v>
-      </c>
+      <c r="I31" s="67">
+        <v>6</v>
+      </c>
+      <c r="J31" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="74"/>
+      <c r="B32" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="64">
+        <v>1020</v>
+      </c>
+      <c r="D32" s="77"/>
+      <c r="E32" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="76"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="74"/>
+      <c r="B33" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="55">
+        <v>1030</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="74"/>
+      <c r="B34" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="55">
+        <v>1040</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="74"/>
+      <c r="B35" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="55">
+        <v>1060</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="53"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="74"/>
+      <c r="B36" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="75">
+        <v>1099</v>
+      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="53"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="74"/>
+      <c r="B37" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="55">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="53"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="72"/>
+      <c r="B38" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="71">
+        <v>1000</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="68">
+        <v>0</v>
+      </c>
+      <c r="D40" s="67">
+        <v>1</v>
+      </c>
+      <c r="E40" s="67">
+        <v>2</v>
+      </c>
+      <c r="F40" s="67">
+        <v>3</v>
+      </c>
+      <c r="G40" s="67">
+        <v>4</v>
+      </c>
+      <c r="H40" s="67">
+        <v>5</v>
+      </c>
+      <c r="I40" s="67">
+        <v>6</v>
+      </c>
+      <c r="J40" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="64">
+        <v>1030</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="55">
+        <v>1031</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="60"/>
+      <c r="K42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="55">
+        <v>1040</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="57"/>
+      <c r="B44" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="55">
+        <v>1041</v>
+      </c>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="53"/>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="55">
+        <v>1060</v>
+      </c>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="52"/>
+      <c r="B46" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="48"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D43:J43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="68">
+        <v>0</v>
+      </c>
+      <c r="E2" s="67">
+        <v>1</v>
+      </c>
+      <c r="F2" s="67">
+        <v>2</v>
+      </c>
+      <c r="G2" s="67">
+        <v>3</v>
+      </c>
+      <c r="H2" s="67">
+        <v>4</v>
+      </c>
+      <c r="I2" s="67">
+        <v>5</v>
+      </c>
+      <c r="J2" s="67">
+        <v>6</v>
+      </c>
+      <c r="K2" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="74"/>
+      <c r="C3" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="64">
+        <v>1020</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="74"/>
+      <c r="C4" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="55">
+        <v>1030</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="74"/>
+      <c r="C5" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="55">
+        <v>1040</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="54"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="74"/>
+      <c r="C6" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="55">
+        <v>1060</v>
+      </c>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="74"/>
+      <c r="C7" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1099</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="74"/>
+      <c r="C8" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="72"/>
+      <c r="C9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="71">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="48"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="68">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <v>1</v>
+      </c>
+      <c r="F11" s="67">
+        <v>2</v>
+      </c>
+      <c r="G11" s="67">
+        <v>3</v>
+      </c>
+      <c r="H11" s="67">
+        <v>4</v>
+      </c>
+      <c r="I11" s="67">
+        <v>5</v>
+      </c>
+      <c r="J11" s="67">
+        <v>6</v>
+      </c>
+      <c r="K11" s="66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="57"/>
+      <c r="C12" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="64">
+        <v>1030</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="57"/>
+      <c r="C13" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="55">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="60"/>
+      <c r="L13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="55">
+        <v>1040</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="58"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="57"/>
+      <c r="C15" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1041</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="53"/>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="55">
+        <v>1060</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="52"/>
+      <c r="C17" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="B11:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>